--- a/src/assets/download/planilha_oficial_inpay.xlsx
+++ b/src/assets/download/planilha_oficial_inpay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Desktop\Meus Documentos\00. Planejamento Financeiro e Pessoal\01. Empresa Thiago\01. InPay Soluções\00. INPAY\17. Case e MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5335FF-0B4C-4897-B0D5-FC77F98121B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1B607-DC6F-4AE6-B26F-23201C897AC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Listas de itens'!$1:$5</definedName>
     <definedName name="VAZIO">Board!$W$11:$AH$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -82,6 +82,21 @@
     <author>thiago sartori</author>
   </authors>
   <commentList>
+    <comment ref="M142" authorId="0" shapeId="0" xr:uid="{B90F10C6-96FE-4634-A483-CDE49A858F58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Retirada de 2600,00+530 +1600 para pagamento dos móveis de casa. Complemento!
+E cobrir Seguro carro</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D151" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
@@ -431,9 +446,6 @@
   </si>
   <si>
     <t>Crediário</t>
-  </si>
-  <si>
-    <t>Imoveis</t>
   </si>
   <si>
     <t>Inv. Exterior ( Em R$)</t>
@@ -998,6 +1010,9 @@
   <si>
     <t>I E%</t>
   </si>
+  <si>
+    <t>Fundo de Investimento</t>
+  </si>
 </sst>
 </file>
 
@@ -1513,7 +1528,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1658,8 +1673,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="98">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -2836,13 +2857,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="365">
+  <cellXfs count="374">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3380,37 +3446,32 @@
     <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3462,6 +3523,171 @@
     </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3627,14 +3853,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3667,130 +3885,52 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="71" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="20" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="68" fillId="20" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="68" fillId="20" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="72" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="69" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="71" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="40" fillId="6" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="40" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="40" fillId="6" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3841,53 +3981,6 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="21" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="21" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="21" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="20" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="20" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="20" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="6" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5658,7 +5751,7 @@
                   <c:v>Previdência privada</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Imoveis</c:v>
+                  <c:v>Fundo de Investimento</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Inv. Exterior ( Em R$)</c:v>
@@ -14405,6 +14498,94 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>250030</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Retângulo: Cantos Arredondados 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5965030" y="26241374"/>
+          <a:ext cx="9977438" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ATENÇÃO : Lançar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> abaixo os valores resgatados de seus investimentos , precisa ser lançado no mês que houve o debito em sua carteira</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16479,49 +16660,49 @@
     </row>
     <row r="2" spans="3:37">
       <c r="W2" s="211" t="s">
+        <v>152</v>
+      </c>
+      <c r="X2" s="211" t="s">
         <v>153</v>
       </c>
-      <c r="X2" s="211" t="s">
+      <c r="Y2" s="211" t="s">
         <v>154</v>
       </c>
-      <c r="Y2" s="211" t="s">
+      <c r="Z2" s="211" t="s">
         <v>155</v>
       </c>
-      <c r="Z2" s="211" t="s">
+      <c r="AA2" s="211" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" s="211" t="s">
+      <c r="AB2" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="AB2" s="211" t="s">
+      <c r="AC2" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="AC2" s="211" t="s">
+      <c r="AD2" s="211" t="s">
         <v>159</v>
       </c>
-      <c r="AD2" s="211" t="s">
+      <c r="AE2" s="211" t="s">
         <v>160</v>
       </c>
-      <c r="AE2" s="211" t="s">
+      <c r="AF2" s="211" t="s">
         <v>161</v>
       </c>
-      <c r="AF2" s="211" t="s">
+      <c r="AG2" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="AG2" s="211" t="s">
+      <c r="AH2" s="211" t="s">
         <v>163</v>
-      </c>
-      <c r="AH2" s="211" t="s">
-        <v>164</v>
       </c>
       <c r="AI2" s="212" t="s">
         <v>50</v>
       </c>
       <c r="AJ2" s="212" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK2" s="212" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="3:37">
@@ -16591,16 +16772,16 @@
       </c>
     </row>
     <row r="4" spans="3:37" ht="19.5" thickBot="1">
-      <c r="G4" s="228" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="229" t="s">
+      <c r="G4" s="229" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="229"/>
+      <c r="J4" s="230"/>
       <c r="V4" s="209" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W4" s="214">
         <f>SUM(W6:W9)</f>
@@ -16663,15 +16844,15 @@
       </c>
     </row>
     <row r="5" spans="3:37" ht="18.75">
-      <c r="G5" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="230"/>
-      <c r="I5" s="242">
+      <c r="G5" s="231" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="231"/>
+      <c r="I5" s="243">
         <f>HLOOKUP(I4,'Listas de itens'!E130:P137,8,0)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="242"/>
+      <c r="J5" s="243"/>
       <c r="V5" s="209" t="str">
         <f>'Listas de itens'!D132</f>
         <v>Investimentos</v>
@@ -16737,15 +16918,15 @@
       </c>
     </row>
     <row r="6" spans="3:37" ht="19.5" thickBot="1">
-      <c r="G6" s="239" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="239"/>
-      <c r="I6" s="243">
+      <c r="G6" s="240" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="240"/>
+      <c r="I6" s="244">
         <f>HLOOKUP(I4,'Listas de itens'!E140:P155,16,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="243"/>
+      <c r="J6" s="244"/>
       <c r="V6" s="209" t="str">
         <f>'Listas de itens'!D133</f>
         <v>Despesas fixas</v>
@@ -17161,22 +17342,18 @@
       </c>
     </row>
     <row r="15" spans="3:37" ht="15">
-      <c r="C15" s="234" t="s">
+      <c r="C15" s="235" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="236"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="242"/>
+      <c r="H15" s="237" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="240">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="241"/>
-      <c r="H15" s="236" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="236"/>
-      <c r="J15" s="240">
-        <v>2000</v>
-      </c>
-      <c r="K15" s="241"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="242"/>
       <c r="V15" s="209" t="str">
         <f>'Listas de itens'!D141</f>
         <v>Ações</v>
@@ -17231,27 +17408,27 @@
       </c>
     </row>
     <row r="16" spans="3:37" ht="15.75">
-      <c r="C16" s="232" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="233"/>
-      <c r="E16" s="231" t="s">
+      <c r="C16" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="231"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="232" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="232"/>
       <c r="G16" s="207" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="237" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="237"/>
-      <c r="J16" s="238" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="238"/>
+        <v>217</v>
+      </c>
+      <c r="H16" s="238" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="238"/>
+      <c r="J16" s="239" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="239"/>
       <c r="P16" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V16" s="209" t="str">
         <f>'Listas de itens'!D142</f>
@@ -17344,7 +17521,7 @@
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="P17" s="117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V17" s="209" t="str">
         <f>'Listas de itens'!D143</f>
@@ -17540,7 +17717,7 @@
       </c>
       <c r="V19" s="209" t="str">
         <f>'Listas de itens'!D145</f>
-        <v>Imoveis</v>
+        <v>Fundo de Investimento</v>
       </c>
       <c r="W19" s="213">
         <f>'Listas de itens'!E145</f>
@@ -18031,7 +18208,7 @@
         <v/>
       </c>
       <c r="Y26" s="217" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z26" s="217" t="s">
         <v>34</v>
@@ -18122,7 +18299,7 @@
     </row>
     <row r="29" spans="3:34" ht="15.75">
       <c r="C29" s="115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="143">
         <f>SUM(D17:D28)</f>
@@ -18131,7 +18308,7 @@
       <c r="E29" s="138"/>
       <c r="F29" s="138"/>
       <c r="H29" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I29" s="147">
         <f>SUM(I17:I28)</f>
@@ -18211,8 +18388,8 @@
       </c>
     </row>
     <row r="35" spans="3:35" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C35" s="220" t="s">
-        <v>186</v>
+      <c r="C35" s="245" t="s">
+        <v>185</v>
       </c>
       <c r="D35" s="151" t="str">
         <f>W41</f>
@@ -18242,7 +18419,7 @@
       </c>
     </row>
     <row r="36" spans="3:35" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C36" s="221"/>
+      <c r="C36" s="246"/>
       <c r="D36" s="154" t="str">
         <f t="shared" ref="D36:D51" si="14">W42</f>
         <v>Transporte</v>
@@ -18271,7 +18448,7 @@
       </c>
     </row>
     <row r="37" spans="3:35" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C37" s="221"/>
+      <c r="C37" s="246"/>
       <c r="D37" s="154" t="str">
         <f t="shared" si="14"/>
         <v>Saúde</v>
@@ -18300,7 +18477,7 @@
       </c>
     </row>
     <row r="38" spans="3:35" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C38" s="221"/>
+      <c r="C38" s="246"/>
       <c r="D38" s="154" t="str">
         <f t="shared" si="14"/>
         <v>Educação</v>
@@ -18329,7 +18506,7 @@
       </c>
     </row>
     <row r="39" spans="3:35" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C39" s="221"/>
+      <c r="C39" s="246"/>
       <c r="D39" s="154" t="str">
         <f t="shared" si="14"/>
         <v>Impostos</v>
@@ -18346,7 +18523,7 @@
       <c r="N39" s="65"/>
       <c r="O39" s="66" t="str">
         <f t="shared" si="13"/>
-        <v>Imoveis</v>
+        <v>Fundo de Investimento</v>
       </c>
       <c r="P39" s="174">
         <f>INDEX($W$15:$AH$21,5,$Y$27)</f>
@@ -18390,7 +18567,7 @@
       </c>
     </row>
     <row r="40" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C40" s="222"/>
+      <c r="C40" s="247"/>
       <c r="D40" s="157" t="str">
         <f t="shared" si="14"/>
         <v>Outros</v>
@@ -18412,10 +18589,10 @@
         <v>0</v>
       </c>
       <c r="V40" s="209" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W40" s="209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X40" s="218" t="str">
         <f>W14</f>
@@ -18467,8 +18644,8 @@
       </c>
     </row>
     <row r="41" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C41" s="223" t="s">
-        <v>178</v>
+      <c r="C41" s="248" t="s">
+        <v>177</v>
       </c>
       <c r="D41" s="160" t="str">
         <f t="shared" si="14"/>
@@ -18550,7 +18727,7 @@
       </c>
     </row>
     <row r="42" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C42" s="224"/>
+      <c r="C42" s="249"/>
       <c r="D42" s="163" t="str">
         <f t="shared" si="14"/>
         <v>C. de Transporte</v>
@@ -18624,7 +18801,7 @@
       </c>
     </row>
     <row r="43" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C43" s="224"/>
+      <c r="C43" s="249"/>
       <c r="D43" s="163" t="str">
         <f t="shared" si="14"/>
         <v>Alimentação</v>
@@ -18697,7 +18874,7 @@
       </c>
     </row>
     <row r="44" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C44" s="224"/>
+      <c r="C44" s="249"/>
       <c r="D44" s="163" t="str">
         <f t="shared" ref="D44:D49" si="18">W50</f>
         <v>Tratamento&amp;saude</v>
@@ -18770,7 +18947,7 @@
       </c>
     </row>
     <row r="45" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C45" s="225"/>
+      <c r="C45" s="250"/>
       <c r="D45" s="166" t="str">
         <f t="shared" si="18"/>
         <v>Cuidados Pessoais</v>
@@ -18843,8 +19020,8 @@
       </c>
     </row>
     <row r="46" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C46" s="226" t="s">
-        <v>179</v>
+      <c r="C46" s="251" t="s">
+        <v>178</v>
       </c>
       <c r="D46" s="169" t="str">
         <f t="shared" si="18"/>
@@ -18918,7 +19095,7 @@
       </c>
     </row>
     <row r="47" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C47" s="221"/>
+      <c r="C47" s="246"/>
       <c r="D47" s="170" t="str">
         <f t="shared" si="18"/>
         <v>Manut. de Bens</v>
@@ -18939,7 +19116,7 @@
         <v>Despesas variáveis</v>
       </c>
       <c r="W47" s="209" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X47" s="216">
         <f>SUM('Listas de itens'!E70:E76)</f>
@@ -18991,7 +19168,7 @@
       </c>
     </row>
     <row r="48" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C48" s="222"/>
+      <c r="C48" s="247"/>
       <c r="D48" s="171" t="str">
         <f t="shared" si="18"/>
         <v>Mat. de Educação</v>
@@ -19012,7 +19189,7 @@
         <v>Despesas variáveis</v>
       </c>
       <c r="W48" s="209" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X48" s="216">
         <f>SUM('Listas de itens'!E78:E81)</f>
@@ -19064,8 +19241,8 @@
       </c>
     </row>
     <row r="49" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C49" s="226" t="s">
-        <v>180</v>
+      <c r="C49" s="251" t="s">
+        <v>179</v>
       </c>
       <c r="D49" s="169" t="str">
         <f t="shared" si="18"/>
@@ -19139,7 +19316,7 @@
       </c>
     </row>
     <row r="50" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C50" s="221"/>
+      <c r="C50" s="246"/>
       <c r="D50" s="170" t="str">
         <f t="shared" si="14"/>
         <v>Vestuário</v>
@@ -19160,7 +19337,7 @@
         <v>Despesas variáveis</v>
       </c>
       <c r="W50" s="209" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X50" s="216">
         <f>'Listas de itens'!E87</f>
@@ -19212,7 +19389,7 @@
       </c>
     </row>
     <row r="51" spans="3:35" ht="16.5" customHeight="1">
-      <c r="C51" s="222"/>
+      <c r="C51" s="247"/>
       <c r="D51" s="171" t="str">
         <f t="shared" si="14"/>
         <v>Outras adicionais</v>
@@ -19233,7 +19410,7 @@
         <v>Despesas variáveis</v>
       </c>
       <c r="W51" s="209" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X51" s="216">
         <f>SUM('Listas de itens'!E89:E93)</f>
@@ -19285,10 +19462,10 @@
       </c>
     </row>
     <row r="52" spans="3:35" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C52" s="227" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="227"/>
+      <c r="C52" s="252" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="252"/>
       <c r="E52" s="172">
         <f>SUM(E35:E51)</f>
         <v>0</v>
@@ -19310,7 +19487,7 @@
         <v>Despesas extras</v>
       </c>
       <c r="W52" s="209" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X52" s="216">
         <f>SUM('Listas de itens'!E99:E101)</f>
@@ -19370,7 +19547,7 @@
         <v>Despesas extras</v>
       </c>
       <c r="W53" s="209" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X53" s="216">
         <f>SUM('Listas de itens'!E103:E104)</f>
@@ -19430,7 +19607,7 @@
         <v>Despesas extras</v>
       </c>
       <c r="W54" s="209" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X54" s="216">
         <f>SUM('Listas de itens'!E106:E107)</f>
@@ -19610,7 +19787,7 @@
         <v>Despesas adicionais</v>
       </c>
       <c r="W57" s="209" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X57" s="216">
         <f>SUM('Listas de itens'!E122:E125)</f>
@@ -19667,13 +19844,18 @@
     <row r="61" spans="3:35" hidden="1"/>
     <row r="62" spans="3:35" hidden="1">
       <c r="W62" s="209" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="3:35" hidden="1"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="aIlFqtDCz+u6f0OBm2J+UgY4wejqe0aZ9uDa8ORdy3KQeOvQpO3uaLArcAjnRJPA0zl1eEZMEzbg9sndOx3H2w==" saltValue="et3fVOby+/M0DVujFAge7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -19688,11 +19870,6 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:F28">
     <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="equal">
@@ -19989,7 +20166,7 @@
   <dimension ref="A1:XFC280"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -20046,12 +20223,12 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" ht="21">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
       <c r="E3" s="70" t="s">
         <v>35</v>
       </c>
@@ -20174,11 +20351,11 @@
       <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" s="126" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A6" s="303" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="305"/>
+      <c r="A6" s="258" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="259"/>
+      <c r="C6" s="260"/>
       <c r="D6" s="122" t="s">
         <v>1</v>
       </c>
@@ -20204,9 +20381,9 @@
       <c r="X6" s="125"/>
     </row>
     <row r="7" spans="1:24" s="126" customFormat="1">
-      <c r="A7" s="306"/>
-      <c r="B7" s="307"/>
-      <c r="C7" s="308"/>
+      <c r="A7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="263"/>
       <c r="D7" s="122" t="s">
         <v>2</v>
       </c>
@@ -20232,9 +20409,9 @@
       <c r="X7" s="125"/>
     </row>
     <row r="8" spans="1:24" s="126" customFormat="1">
-      <c r="A8" s="306"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="308"/>
+      <c r="A8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
       <c r="D8" s="122" t="s">
         <v>3</v>
       </c>
@@ -20260,9 +20437,9 @@
       <c r="X8" s="125"/>
     </row>
     <row r="9" spans="1:24" s="126" customFormat="1">
-      <c r="A9" s="306"/>
-      <c r="B9" s="307"/>
-      <c r="C9" s="308"/>
+      <c r="A9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
       <c r="D9" s="122" t="s">
         <v>4</v>
       </c>
@@ -20288,9 +20465,9 @@
       <c r="X9" s="125"/>
     </row>
     <row r="10" spans="1:24" s="126" customFormat="1">
-      <c r="A10" s="306"/>
-      <c r="B10" s="307"/>
-      <c r="C10" s="308"/>
+      <c r="A10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
       <c r="D10" s="122" t="s">
         <v>77</v>
       </c>
@@ -20316,9 +20493,9 @@
       <c r="X10" s="125"/>
     </row>
     <row r="11" spans="1:24" s="126" customFormat="1">
-      <c r="A11" s="306"/>
-      <c r="B11" s="307"/>
-      <c r="C11" s="308"/>
+      <c r="A11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
       <c r="D11" s="122" t="s">
         <v>78</v>
       </c>
@@ -20344,9 +20521,9 @@
       <c r="X11" s="125"/>
     </row>
     <row r="12" spans="1:24" s="126" customFormat="1">
-      <c r="A12" s="306"/>
-      <c r="B12" s="307"/>
-      <c r="C12" s="308"/>
+      <c r="A12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
       <c r="D12" s="122" t="s">
         <v>76</v>
       </c>
@@ -20372,9 +20549,9 @@
       <c r="X12" s="125"/>
     </row>
     <row r="13" spans="1:24" s="126" customFormat="1">
-      <c r="A13" s="306"/>
-      <c r="B13" s="307"/>
-      <c r="C13" s="308"/>
+      <c r="A13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
       <c r="D13" s="122" t="s">
         <v>76</v>
       </c>
@@ -20400,9 +20577,9 @@
       <c r="X13" s="125"/>
     </row>
     <row r="14" spans="1:24" s="126" customFormat="1">
-      <c r="A14" s="306"/>
-      <c r="B14" s="307"/>
-      <c r="C14" s="308"/>
+      <c r="A14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
       <c r="D14" s="122" t="s">
         <v>76</v>
       </c>
@@ -20428,9 +20605,9 @@
       <c r="X14" s="125"/>
     </row>
     <row r="15" spans="1:24" s="126" customFormat="1">
-      <c r="A15" s="306"/>
-      <c r="B15" s="307"/>
-      <c r="C15" s="308"/>
+      <c r="A15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
       <c r="D15" s="122" t="s">
         <v>76</v>
       </c>
@@ -20456,9 +20633,9 @@
       <c r="X15" s="125"/>
     </row>
     <row r="16" spans="1:24" ht="3" customHeight="1">
-      <c r="A16" s="306"/>
-      <c r="B16" s="307"/>
-      <c r="C16" s="308"/>
+      <c r="A16" s="261"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -20482,9 +20659,9 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A17" s="309"/>
-      <c r="B17" s="310"/>
-      <c r="C17" s="311"/>
+      <c r="A17" s="264"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="19" t="s">
         <v>50</v>
       </c>
@@ -20572,24 +20749,24 @@
       <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" ht="18.75">
-      <c r="A19" s="274" t="s">
+      <c r="A19" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="274"/>
-      <c r="I19" s="274"/>
-      <c r="J19" s="274"/>
-      <c r="K19" s="274"/>
-      <c r="L19" s="274"/>
-      <c r="M19" s="274"/>
-      <c r="N19" s="274"/>
-      <c r="O19" s="274"/>
-      <c r="P19" s="274"/>
+      <c r="B19" s="317"/>
+      <c r="C19" s="317"/>
+      <c r="D19" s="317"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="317"/>
+      <c r="G19" s="317"/>
+      <c r="H19" s="317"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="317"/>
+      <c r="L19" s="317"/>
+      <c r="M19" s="317"/>
+      <c r="N19" s="317"/>
+      <c r="O19" s="317"/>
+      <c r="P19" s="317"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -20626,11 +20803,11 @@
       <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A21" s="262" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="263"/>
-      <c r="C21" s="264"/>
+      <c r="A21" s="305" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="306"/>
+      <c r="C21" s="307"/>
       <c r="D21" s="122" t="s">
         <v>25</v>
       </c>
@@ -20656,9 +20833,9 @@
       <c r="X21" s="125"/>
     </row>
     <row r="22" spans="1:24" s="126" customFormat="1">
-      <c r="A22" s="265"/>
-      <c r="B22" s="266"/>
-      <c r="C22" s="267"/>
+      <c r="A22" s="308"/>
+      <c r="B22" s="309"/>
+      <c r="C22" s="310"/>
       <c r="D22" s="122" t="s">
         <v>26</v>
       </c>
@@ -20684,9 +20861,9 @@
       <c r="X22" s="125"/>
     </row>
     <row r="23" spans="1:24" s="126" customFormat="1">
-      <c r="A23" s="265"/>
-      <c r="B23" s="266"/>
-      <c r="C23" s="267"/>
+      <c r="A23" s="308"/>
+      <c r="B23" s="309"/>
+      <c r="C23" s="310"/>
       <c r="D23" s="122" t="s">
         <v>79</v>
       </c>
@@ -20712,9 +20889,9 @@
       <c r="X23" s="125"/>
     </row>
     <row r="24" spans="1:24" s="126" customFormat="1">
-      <c r="A24" s="265"/>
-      <c r="B24" s="266"/>
-      <c r="C24" s="267"/>
+      <c r="A24" s="308"/>
+      <c r="B24" s="309"/>
+      <c r="C24" s="310"/>
       <c r="D24" s="122" t="s">
         <v>48</v>
       </c>
@@ -20740,11 +20917,11 @@
       <c r="X24" s="125"/>
     </row>
     <row r="25" spans="1:24" s="126" customFormat="1">
-      <c r="A25" s="265"/>
-      <c r="B25" s="266"/>
-      <c r="C25" s="267"/>
+      <c r="A25" s="308"/>
+      <c r="B25" s="309"/>
+      <c r="C25" s="310"/>
       <c r="D25" s="122" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="E25" s="123"/>
       <c r="F25" s="123"/>
@@ -20768,11 +20945,11 @@
       <c r="X25" s="125"/>
     </row>
     <row r="26" spans="1:24" s="126" customFormat="1">
-      <c r="A26" s="265"/>
-      <c r="B26" s="266"/>
-      <c r="C26" s="267"/>
+      <c r="A26" s="308"/>
+      <c r="B26" s="309"/>
+      <c r="C26" s="310"/>
       <c r="D26" s="122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="123"/>
       <c r="F26" s="123"/>
@@ -20796,9 +20973,9 @@
       <c r="X26" s="125"/>
     </row>
     <row r="27" spans="1:24" s="126" customFormat="1">
-      <c r="A27" s="265"/>
-      <c r="B27" s="266"/>
-      <c r="C27" s="267"/>
+      <c r="A27" s="308"/>
+      <c r="B27" s="309"/>
+      <c r="C27" s="310"/>
       <c r="D27" s="122" t="s">
         <v>76</v>
       </c>
@@ -20824,9 +21001,9 @@
       <c r="X27" s="125"/>
     </row>
     <row r="28" spans="1:24" s="126" customFormat="1">
-      <c r="A28" s="265"/>
-      <c r="B28" s="266"/>
-      <c r="C28" s="267"/>
+      <c r="A28" s="308"/>
+      <c r="B28" s="309"/>
+      <c r="C28" s="310"/>
       <c r="D28" s="122" t="s">
         <v>76</v>
       </c>
@@ -20852,9 +21029,9 @@
       <c r="X28" s="125"/>
     </row>
     <row r="29" spans="1:24" s="126" customFormat="1">
-      <c r="A29" s="265"/>
-      <c r="B29" s="266"/>
-      <c r="C29" s="267"/>
+      <c r="A29" s="308"/>
+      <c r="B29" s="309"/>
+      <c r="C29" s="310"/>
       <c r="D29" s="122" t="s">
         <v>76</v>
       </c>
@@ -20880,9 +21057,9 @@
       <c r="X29" s="125"/>
     </row>
     <row r="30" spans="1:24" s="126" customFormat="1">
-      <c r="A30" s="265"/>
-      <c r="B30" s="266"/>
-      <c r="C30" s="267"/>
+      <c r="A30" s="308"/>
+      <c r="B30" s="309"/>
+      <c r="C30" s="310"/>
       <c r="D30" s="122" t="s">
         <v>76</v>
       </c>
@@ -20908,9 +21085,9 @@
       <c r="X30" s="125"/>
     </row>
     <row r="31" spans="1:24" ht="3" customHeight="1">
-      <c r="A31" s="265"/>
-      <c r="B31" s="266"/>
-      <c r="C31" s="267"/>
+      <c r="A31" s="308"/>
+      <c r="B31" s="309"/>
+      <c r="C31" s="310"/>
       <c r="D31" s="17"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -20934,9 +21111,9 @@
       <c r="X31" s="10"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="265"/>
-      <c r="B32" s="266"/>
-      <c r="C32" s="267"/>
+      <c r="A32" s="308"/>
+      <c r="B32" s="309"/>
+      <c r="C32" s="310"/>
       <c r="D32" s="19" t="s">
         <v>50</v>
       </c>
@@ -20998,9 +21175,9 @@
       <c r="X32" s="10"/>
     </row>
     <row r="33" spans="1:24" ht="3.75" customHeight="1">
-      <c r="A33" s="265"/>
-      <c r="B33" s="266"/>
-      <c r="C33" s="267"/>
+      <c r="A33" s="308"/>
+      <c r="B33" s="309"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="29"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -21024,9 +21201,9 @@
       <c r="X33" s="10"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A34" s="268"/>
-      <c r="B34" s="269"/>
-      <c r="C34" s="270"/>
+      <c r="A34" s="311"/>
+      <c r="B34" s="312"/>
+      <c r="C34" s="313"/>
       <c r="D34" s="32" t="s">
         <v>94</v>
       </c>
@@ -21114,24 +21291,24 @@
       <c r="X35" s="10"/>
     </row>
     <row r="36" spans="1:24" ht="18.75">
-      <c r="A36" s="275" t="s">
+      <c r="A36" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="275"/>
-      <c r="C36" s="275"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="275"/>
-      <c r="J36" s="275"/>
-      <c r="K36" s="275"/>
-      <c r="L36" s="275"/>
-      <c r="M36" s="275"/>
-      <c r="N36" s="275"/>
-      <c r="O36" s="275"/>
-      <c r="P36" s="275"/>
+      <c r="B36" s="318"/>
+      <c r="C36" s="318"/>
+      <c r="D36" s="318"/>
+      <c r="E36" s="318"/>
+      <c r="F36" s="318"/>
+      <c r="G36" s="318"/>
+      <c r="H36" s="318"/>
+      <c r="I36" s="318"/>
+      <c r="J36" s="318"/>
+      <c r="K36" s="318"/>
+      <c r="L36" s="318"/>
+      <c r="M36" s="318"/>
+      <c r="N36" s="318"/>
+      <c r="O36" s="318"/>
+      <c r="P36" s="318"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
@@ -21143,10 +21320,10 @@
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1">
       <c r="A37" s="25"/>
-      <c r="B37" s="312" t="s">
+      <c r="B37" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="312"/>
+      <c r="C37" s="267"/>
       <c r="D37" s="27" t="s">
         <v>74</v>
       </c>
@@ -21172,11 +21349,11 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A38" s="319" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="320"/>
-      <c r="C38" s="290" t="s">
+      <c r="A38" s="274" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="275"/>
+      <c r="C38" s="255" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="122" t="s">
@@ -21204,9 +21381,9 @@
       <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="321"/>
-      <c r="B39" s="322"/>
-      <c r="C39" s="302"/>
+      <c r="A39" s="276"/>
+      <c r="B39" s="277"/>
+      <c r="C39" s="256"/>
       <c r="D39" s="122" t="s">
         <v>11</v>
       </c>
@@ -21232,9 +21409,9 @@
       <c r="X39" s="10"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="321"/>
-      <c r="B40" s="322"/>
-      <c r="C40" s="302"/>
+      <c r="A40" s="276"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="256"/>
       <c r="D40" s="122" t="s">
         <v>12</v>
       </c>
@@ -21260,9 +21437,9 @@
       <c r="X40" s="10"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="321"/>
-      <c r="B41" s="322"/>
-      <c r="C41" s="302"/>
+      <c r="A41" s="276"/>
+      <c r="B41" s="277"/>
+      <c r="C41" s="256"/>
       <c r="D41" s="122" t="s">
         <v>80</v>
       </c>
@@ -21288,9 +21465,9 @@
       <c r="X41" s="10"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="321"/>
-      <c r="B42" s="322"/>
-      <c r="C42" s="302"/>
+      <c r="A42" s="276"/>
+      <c r="B42" s="277"/>
+      <c r="C42" s="256"/>
       <c r="D42" s="122" t="s">
         <v>13</v>
       </c>
@@ -21316,9 +21493,9 @@
       <c r="X42" s="10"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A43" s="321"/>
-      <c r="B43" s="322"/>
-      <c r="C43" s="291"/>
+      <c r="A43" s="276"/>
+      <c r="B43" s="277"/>
+      <c r="C43" s="257"/>
       <c r="D43" s="122" t="s">
         <v>14</v>
       </c>
@@ -21344,8 +21521,8 @@
       <c r="X43" s="10"/>
     </row>
     <row r="44" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A44" s="321"/>
-      <c r="B44" s="323"/>
+      <c r="A44" s="276"/>
+      <c r="B44" s="278"/>
       <c r="C44" s="128"/>
       <c r="D44" s="129"/>
       <c r="E44" s="130"/>
@@ -21370,9 +21547,9 @@
       <c r="X44" s="10"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A45" s="321"/>
-      <c r="B45" s="322"/>
-      <c r="C45" s="290" t="s">
+      <c r="A45" s="276"/>
+      <c r="B45" s="277"/>
+      <c r="C45" s="255" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="122" t="s">
@@ -21400,9 +21577,9 @@
       <c r="X45" s="10"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="321"/>
-      <c r="B46" s="322"/>
-      <c r="C46" s="302"/>
+      <c r="A46" s="276"/>
+      <c r="B46" s="277"/>
+      <c r="C46" s="256"/>
       <c r="D46" s="122" t="s">
         <v>63</v>
       </c>
@@ -21428,9 +21605,9 @@
       <c r="X46" s="10"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A47" s="321"/>
-      <c r="B47" s="322"/>
-      <c r="C47" s="291"/>
+      <c r="A47" s="276"/>
+      <c r="B47" s="277"/>
+      <c r="C47" s="257"/>
       <c r="D47" s="122" t="s">
         <v>32</v>
       </c>
@@ -21456,8 +21633,8 @@
       <c r="X47" s="10"/>
     </row>
     <row r="48" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A48" s="321"/>
-      <c r="B48" s="323"/>
+      <c r="A48" s="276"/>
+      <c r="B48" s="278"/>
       <c r="C48" s="128"/>
       <c r="D48" s="129"/>
       <c r="E48" s="130"/>
@@ -21482,9 +21659,9 @@
       <c r="X48" s="10"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A49" s="321"/>
-      <c r="B49" s="322"/>
-      <c r="C49" s="290" t="s">
+      <c r="A49" s="276"/>
+      <c r="B49" s="277"/>
+      <c r="C49" s="255" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="122" t="s">
@@ -21512,9 +21689,9 @@
       <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A50" s="321"/>
-      <c r="B50" s="322"/>
-      <c r="C50" s="291"/>
+      <c r="A50" s="276"/>
+      <c r="B50" s="277"/>
+      <c r="C50" s="257"/>
       <c r="D50" s="122" t="s">
         <v>82</v>
       </c>
@@ -21540,8 +21717,8 @@
       <c r="X50" s="10"/>
     </row>
     <row r="51" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A51" s="321"/>
-      <c r="B51" s="323"/>
+      <c r="A51" s="276"/>
+      <c r="B51" s="278"/>
       <c r="C51" s="128"/>
       <c r="D51" s="129"/>
       <c r="E51" s="130"/>
@@ -21566,9 +21743,9 @@
       <c r="X51" s="10"/>
     </row>
     <row r="52" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A52" s="321"/>
-      <c r="B52" s="322"/>
-      <c r="C52" s="290" t="s">
+      <c r="A52" s="276"/>
+      <c r="B52" s="277"/>
+      <c r="C52" s="255" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="122" t="s">
@@ -21596,9 +21773,9 @@
       <c r="X52" s="10"/>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="321"/>
-      <c r="B53" s="322"/>
-      <c r="C53" s="302"/>
+      <c r="A53" s="276"/>
+      <c r="B53" s="277"/>
+      <c r="C53" s="256"/>
       <c r="D53" s="122" t="s">
         <v>19</v>
       </c>
@@ -21624,9 +21801,9 @@
       <c r="X53" s="10"/>
     </row>
     <row r="54" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A54" s="321"/>
-      <c r="B54" s="322"/>
-      <c r="C54" s="291"/>
+      <c r="A54" s="276"/>
+      <c r="B54" s="277"/>
+      <c r="C54" s="257"/>
       <c r="D54" s="122" t="s">
         <v>61</v>
       </c>
@@ -21652,8 +21829,8 @@
       <c r="X54" s="10"/>
     </row>
     <row r="55" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A55" s="321"/>
-      <c r="B55" s="323"/>
+      <c r="A55" s="276"/>
+      <c r="B55" s="278"/>
       <c r="C55" s="128"/>
       <c r="D55" s="129"/>
       <c r="E55" s="130"/>
@@ -21678,9 +21855,9 @@
       <c r="X55" s="10"/>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A56" s="321"/>
-      <c r="B56" s="322"/>
-      <c r="C56" s="290" t="s">
+      <c r="A56" s="276"/>
+      <c r="B56" s="277"/>
+      <c r="C56" s="255" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="122" t="s">
@@ -21708,9 +21885,9 @@
       <c r="X56" s="10"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A57" s="321"/>
-      <c r="B57" s="322"/>
-      <c r="C57" s="291"/>
+      <c r="A57" s="276"/>
+      <c r="B57" s="277"/>
+      <c r="C57" s="257"/>
       <c r="D57" s="122" t="s">
         <v>17</v>
       </c>
@@ -21736,8 +21913,8 @@
       <c r="X57" s="10"/>
     </row>
     <row r="58" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="321"/>
-      <c r="B58" s="323"/>
+      <c r="A58" s="276"/>
+      <c r="B58" s="278"/>
       <c r="C58" s="128"/>
       <c r="D58" s="129"/>
       <c r="E58" s="130"/>
@@ -21762,9 +21939,9 @@
       <c r="X58" s="10"/>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A59" s="321"/>
-      <c r="B59" s="322"/>
-      <c r="C59" s="313" t="s">
+      <c r="A59" s="276"/>
+      <c r="B59" s="277"/>
+      <c r="C59" s="268" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="122" t="s">
@@ -21792,9 +21969,9 @@
       <c r="X59" s="10"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="321"/>
-      <c r="B60" s="322"/>
-      <c r="C60" s="314"/>
+      <c r="A60" s="276"/>
+      <c r="B60" s="277"/>
+      <c r="C60" s="269"/>
       <c r="D60" s="122" t="s">
         <v>3</v>
       </c>
@@ -21820,11 +21997,11 @@
       <c r="X60" s="10"/>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="321"/>
-      <c r="B61" s="322"/>
-      <c r="C61" s="314"/>
+      <c r="A61" s="276"/>
+      <c r="B61" s="277"/>
+      <c r="C61" s="269"/>
       <c r="D61" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" s="127"/>
       <c r="F61" s="127"/>
@@ -21848,11 +22025,11 @@
       <c r="X61" s="10"/>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="321"/>
-      <c r="B62" s="322"/>
-      <c r="C62" s="314"/>
+      <c r="A62" s="276"/>
+      <c r="B62" s="277"/>
+      <c r="C62" s="269"/>
       <c r="D62" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="127"/>
       <c r="F62" s="127"/>
@@ -21876,11 +22053,11 @@
       <c r="X62" s="10"/>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="321"/>
-      <c r="B63" s="322"/>
-      <c r="C63" s="314"/>
+      <c r="A63" s="276"/>
+      <c r="B63" s="277"/>
+      <c r="C63" s="269"/>
       <c r="D63" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="127"/>
       <c r="F63" s="127"/>
@@ -21904,11 +22081,11 @@
       <c r="X63" s="10"/>
     </row>
     <row r="64" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A64" s="321"/>
-      <c r="B64" s="322"/>
-      <c r="C64" s="315"/>
+      <c r="A64" s="276"/>
+      <c r="B64" s="277"/>
+      <c r="C64" s="270"/>
       <c r="D64" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" s="127"/>
       <c r="F64" s="127"/>
@@ -21932,8 +22109,8 @@
       <c r="X64" s="10"/>
     </row>
     <row r="65" spans="1:24" ht="3.75" customHeight="1" thickTop="1">
-      <c r="A65" s="321"/>
-      <c r="B65" s="323"/>
+      <c r="A65" s="276"/>
+      <c r="B65" s="278"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="23"/>
@@ -21958,8 +22135,8 @@
       <c r="X65" s="10"/>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="321"/>
-      <c r="B66" s="323"/>
+      <c r="A66" s="276"/>
+      <c r="B66" s="278"/>
       <c r="C66" s="31" t="s">
         <v>83</v>
       </c>
@@ -22022,8 +22199,8 @@
       <c r="X66" s="10"/>
     </row>
     <row r="67" spans="1:24" ht="3.75" customHeight="1">
-      <c r="A67" s="321"/>
-      <c r="B67" s="323"/>
+      <c r="A67" s="276"/>
+      <c r="B67" s="278"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="177"/>
@@ -22048,8 +22225,8 @@
       <c r="X67" s="10"/>
     </row>
     <row r="68" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A68" s="324"/>
-      <c r="B68" s="325"/>
+      <c r="A68" s="279"/>
+      <c r="B68" s="280"/>
       <c r="C68" s="31" t="s">
         <v>94</v>
       </c>
@@ -22138,12 +22315,12 @@
       <c r="X69" s="10"/>
     </row>
     <row r="70" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A70" s="319" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="326"/>
-      <c r="C70" s="290" t="s">
-        <v>170</v>
+      <c r="A70" s="274" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="281"/>
+      <c r="C70" s="255" t="s">
+        <v>169</v>
       </c>
       <c r="D70" s="122" t="s">
         <v>7</v>
@@ -22170,9 +22347,9 @@
       <c r="X70" s="10"/>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="327"/>
-      <c r="B71" s="328"/>
-      <c r="C71" s="302"/>
+      <c r="A71" s="282"/>
+      <c r="B71" s="283"/>
+      <c r="C71" s="256"/>
       <c r="D71" s="122" t="s">
         <v>8</v>
       </c>
@@ -22198,9 +22375,9 @@
       <c r="X71" s="10"/>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="327"/>
-      <c r="B72" s="328"/>
-      <c r="C72" s="302"/>
+      <c r="A72" s="282"/>
+      <c r="B72" s="283"/>
+      <c r="C72" s="256"/>
       <c r="D72" s="122" t="s">
         <v>9</v>
       </c>
@@ -22226,9 +22403,9 @@
       <c r="X72" s="10"/>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="327"/>
-      <c r="B73" s="328"/>
-      <c r="C73" s="302"/>
+      <c r="A73" s="282"/>
+      <c r="B73" s="283"/>
+      <c r="C73" s="256"/>
       <c r="D73" s="122" t="s">
         <v>22</v>
       </c>
@@ -22254,9 +22431,9 @@
       <c r="X73" s="10"/>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="327"/>
-      <c r="B74" s="328"/>
-      <c r="C74" s="302"/>
+      <c r="A74" s="282"/>
+      <c r="B74" s="283"/>
+      <c r="C74" s="256"/>
       <c r="D74" s="122" t="s">
         <v>10</v>
       </c>
@@ -22282,9 +22459,9 @@
       <c r="X74" s="10"/>
     </row>
     <row r="75" spans="1:24">
-      <c r="A75" s="327"/>
-      <c r="B75" s="328"/>
-      <c r="C75" s="302"/>
+      <c r="A75" s="282"/>
+      <c r="B75" s="283"/>
+      <c r="C75" s="256"/>
       <c r="D75" s="122" t="s">
         <v>75</v>
       </c>
@@ -22310,9 +22487,9 @@
       <c r="X75" s="10"/>
     </row>
     <row r="76" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A76" s="327"/>
-      <c r="B76" s="328"/>
-      <c r="C76" s="291"/>
+      <c r="A76" s="282"/>
+      <c r="B76" s="283"/>
+      <c r="C76" s="257"/>
       <c r="D76" s="122" t="s">
         <v>62</v>
       </c>
@@ -22338,8 +22515,8 @@
       <c r="X76" s="10"/>
     </row>
     <row r="77" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A77" s="327"/>
-      <c r="B77" s="329"/>
+      <c r="A77" s="282"/>
+      <c r="B77" s="284"/>
       <c r="C77" s="128"/>
       <c r="D77" s="129"/>
       <c r="E77" s="131"/>
@@ -22364,10 +22541,10 @@
       <c r="X77" s="10"/>
     </row>
     <row r="78" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A78" s="327"/>
-      <c r="B78" s="328"/>
-      <c r="C78" s="316" t="s">
-        <v>171</v>
+      <c r="A78" s="282"/>
+      <c r="B78" s="283"/>
+      <c r="C78" s="271" t="s">
+        <v>170</v>
       </c>
       <c r="D78" s="122" t="s">
         <v>52</v>
@@ -22394,9 +22571,9 @@
       <c r="X78" s="10"/>
     </row>
     <row r="79" spans="1:24">
-      <c r="A79" s="327"/>
-      <c r="B79" s="328"/>
-      <c r="C79" s="317"/>
+      <c r="A79" s="282"/>
+      <c r="B79" s="283"/>
+      <c r="C79" s="272"/>
       <c r="D79" s="122" t="s">
         <v>53</v>
       </c>
@@ -22422,9 +22599,9 @@
       <c r="X79" s="10"/>
     </row>
     <row r="80" spans="1:24">
-      <c r="A80" s="327"/>
-      <c r="B80" s="328"/>
-      <c r="C80" s="317"/>
+      <c r="A80" s="282"/>
+      <c r="B80" s="283"/>
+      <c r="C80" s="272"/>
       <c r="D80" s="122" t="s">
         <v>54</v>
       </c>
@@ -22450,9 +22627,9 @@
       <c r="X80" s="10"/>
     </row>
     <row r="81" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A81" s="327"/>
-      <c r="B81" s="328"/>
-      <c r="C81" s="318"/>
+      <c r="A81" s="282"/>
+      <c r="B81" s="283"/>
+      <c r="C81" s="273"/>
       <c r="D81" s="122" t="s">
         <v>32</v>
       </c>
@@ -22478,8 +22655,8 @@
       <c r="X81" s="10"/>
     </row>
     <row r="82" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="327"/>
-      <c r="B82" s="329"/>
+      <c r="A82" s="282"/>
+      <c r="B82" s="284"/>
       <c r="C82" s="132"/>
       <c r="D82" s="129"/>
       <c r="E82" s="131"/>
@@ -22504,9 +22681,9 @@
       <c r="X82" s="10"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A83" s="327"/>
-      <c r="B83" s="328"/>
-      <c r="C83" s="290" t="s">
+      <c r="A83" s="282"/>
+      <c r="B83" s="283"/>
+      <c r="C83" s="255" t="s">
         <v>55</v>
       </c>
       <c r="D83" s="122" t="s">
@@ -22534,9 +22711,9 @@
       <c r="X83" s="10"/>
     </row>
     <row r="84" spans="1:24">
-      <c r="A84" s="327"/>
-      <c r="B84" s="328"/>
-      <c r="C84" s="302"/>
+      <c r="A84" s="282"/>
+      <c r="B84" s="283"/>
+      <c r="C84" s="256"/>
       <c r="D84" s="122" t="s">
         <v>56</v>
       </c>
@@ -22562,9 +22739,9 @@
       <c r="X84" s="10"/>
     </row>
     <row r="85" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A85" s="327"/>
-      <c r="B85" s="328"/>
-      <c r="C85" s="291"/>
+      <c r="A85" s="282"/>
+      <c r="B85" s="283"/>
+      <c r="C85" s="257"/>
       <c r="D85" s="122" t="s">
         <v>57</v>
       </c>
@@ -22590,8 +22767,8 @@
       <c r="X85" s="10"/>
     </row>
     <row r="86" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="327"/>
-      <c r="B86" s="329"/>
+      <c r="A86" s="282"/>
+      <c r="B86" s="284"/>
       <c r="C86" s="132"/>
       <c r="D86" s="129"/>
       <c r="E86" s="131"/>
@@ -22616,10 +22793,10 @@
       <c r="X86" s="10"/>
     </row>
     <row r="87" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="327"/>
-      <c r="B87" s="328"/>
+      <c r="A87" s="282"/>
+      <c r="B87" s="283"/>
       <c r="C87" s="133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" s="122" t="s">
         <v>33</v>
@@ -22646,8 +22823,8 @@
       <c r="X87" s="10"/>
     </row>
     <row r="88" spans="1:24" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A88" s="327"/>
-      <c r="B88" s="329"/>
+      <c r="A88" s="282"/>
+      <c r="B88" s="284"/>
       <c r="C88" s="132"/>
       <c r="D88" s="129"/>
       <c r="E88" s="131"/>
@@ -22672,9 +22849,9 @@
       <c r="X88" s="10"/>
     </row>
     <row r="89" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A89" s="327"/>
-      <c r="B89" s="328"/>
-      <c r="C89" s="290" t="s">
+      <c r="A89" s="282"/>
+      <c r="B89" s="283"/>
+      <c r="C89" s="255" t="s">
         <v>84</v>
       </c>
       <c r="D89" s="122" t="s">
@@ -22702,9 +22879,9 @@
       <c r="X89" s="10"/>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="327"/>
-      <c r="B90" s="328"/>
-      <c r="C90" s="302"/>
+      <c r="A90" s="282"/>
+      <c r="B90" s="283"/>
+      <c r="C90" s="256"/>
       <c r="D90" s="122" t="s">
         <v>64</v>
       </c>
@@ -22730,9 +22907,9 @@
       <c r="X90" s="10"/>
     </row>
     <row r="91" spans="1:24">
-      <c r="A91" s="327"/>
-      <c r="B91" s="328"/>
-      <c r="C91" s="302"/>
+      <c r="A91" s="282"/>
+      <c r="B91" s="283"/>
+      <c r="C91" s="256"/>
       <c r="D91" s="122" t="s">
         <v>65</v>
       </c>
@@ -22758,9 +22935,9 @@
       <c r="X91" s="10"/>
     </row>
     <row r="92" spans="1:24">
-      <c r="A92" s="327"/>
-      <c r="B92" s="328"/>
-      <c r="C92" s="302"/>
+      <c r="A92" s="282"/>
+      <c r="B92" s="283"/>
+      <c r="C92" s="256"/>
       <c r="D92" s="122" t="s">
         <v>21</v>
       </c>
@@ -22786,9 +22963,9 @@
       <c r="X92" s="10"/>
     </row>
     <row r="93" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A93" s="327"/>
-      <c r="B93" s="328"/>
-      <c r="C93" s="291"/>
+      <c r="A93" s="282"/>
+      <c r="B93" s="283"/>
+      <c r="C93" s="257"/>
       <c r="D93" s="122" t="s">
         <v>20</v>
       </c>
@@ -22814,8 +22991,8 @@
       <c r="X93" s="10"/>
     </row>
     <row r="94" spans="1:24" ht="3.75" customHeight="1" thickTop="1">
-      <c r="A94" s="327"/>
-      <c r="B94" s="329"/>
+      <c r="A94" s="282"/>
+      <c r="B94" s="284"/>
       <c r="C94" s="35"/>
       <c r="D94" s="29"/>
       <c r="E94" s="23"/>
@@ -22840,8 +23017,8 @@
       <c r="X94" s="10"/>
     </row>
     <row r="95" spans="1:24" s="184" customFormat="1">
-      <c r="A95" s="327"/>
-      <c r="B95" s="329"/>
+      <c r="A95" s="282"/>
+      <c r="B95" s="284"/>
       <c r="C95" s="36" t="s">
         <v>86</v>
       </c>
@@ -22904,8 +23081,8 @@
       <c r="X95" s="183"/>
     </row>
     <row r="96" spans="1:24" s="184" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A96" s="327"/>
-      <c r="B96" s="329"/>
+      <c r="A96" s="282"/>
+      <c r="B96" s="284"/>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
       <c r="E96" s="177"/>
@@ -22930,8 +23107,8 @@
       <c r="X96" s="183"/>
     </row>
     <row r="97" spans="1:24" s="184" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="330"/>
-      <c r="B97" s="331"/>
+      <c r="A97" s="285"/>
+      <c r="B97" s="286"/>
       <c r="C97" s="31" t="s">
         <v>94</v>
       </c>
@@ -23020,12 +23197,12 @@
       <c r="X98" s="10"/>
     </row>
     <row r="99" spans="1:24" s="126" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A99" s="292" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="293"/>
-      <c r="C99" s="290" t="s">
-        <v>174</v>
+      <c r="A99" s="333" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="334"/>
+      <c r="C99" s="255" t="s">
+        <v>173</v>
       </c>
       <c r="D99" s="122" t="s">
         <v>28</v>
@@ -23052,9 +23229,9 @@
       <c r="X99" s="125"/>
     </row>
     <row r="100" spans="1:24" s="126" customFormat="1">
-      <c r="A100" s="294"/>
-      <c r="B100" s="295"/>
-      <c r="C100" s="302"/>
+      <c r="A100" s="335"/>
+      <c r="B100" s="336"/>
+      <c r="C100" s="256"/>
       <c r="D100" s="122" t="s">
         <v>29</v>
       </c>
@@ -23080,9 +23257,9 @@
       <c r="X100" s="125"/>
     </row>
     <row r="101" spans="1:24" s="126" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A101" s="294"/>
-      <c r="B101" s="295"/>
-      <c r="C101" s="291"/>
+      <c r="A101" s="335"/>
+      <c r="B101" s="336"/>
+      <c r="C101" s="257"/>
       <c r="D101" s="122" t="s">
         <v>66</v>
       </c>
@@ -23108,8 +23285,8 @@
       <c r="X101" s="125"/>
     </row>
     <row r="102" spans="1:24" s="126" customFormat="1" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A102" s="294"/>
-      <c r="B102" s="296"/>
+      <c r="A102" s="335"/>
+      <c r="B102" s="337"/>
       <c r="C102" s="132"/>
       <c r="D102" s="129"/>
       <c r="E102" s="131"/>
@@ -23134,10 +23311,10 @@
       <c r="X102" s="125"/>
     </row>
     <row r="103" spans="1:24" s="126" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A103" s="294"/>
-      <c r="B103" s="295"/>
-      <c r="C103" s="288" t="s">
-        <v>175</v>
+      <c r="A103" s="335"/>
+      <c r="B103" s="336"/>
+      <c r="C103" s="331" t="s">
+        <v>174</v>
       </c>
       <c r="D103" s="122" t="s">
         <v>67</v>
@@ -23164,9 +23341,9 @@
       <c r="X103" s="125"/>
     </row>
     <row r="104" spans="1:24" s="126" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A104" s="294"/>
-      <c r="B104" s="295"/>
-      <c r="C104" s="289"/>
+      <c r="A104" s="335"/>
+      <c r="B104" s="336"/>
+      <c r="C104" s="332"/>
       <c r="D104" s="122" t="s">
         <v>68</v>
       </c>
@@ -23192,8 +23369,8 @@
       <c r="X104" s="125"/>
     </row>
     <row r="105" spans="1:24" s="126" customFormat="1" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A105" s="294"/>
-      <c r="B105" s="296"/>
+      <c r="A105" s="335"/>
+      <c r="B105" s="337"/>
       <c r="C105" s="132"/>
       <c r="D105" s="129"/>
       <c r="E105" s="131"/>
@@ -23218,10 +23395,10 @@
       <c r="X105" s="125"/>
     </row>
     <row r="106" spans="1:24" s="126" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A106" s="294"/>
-      <c r="B106" s="295"/>
-      <c r="C106" s="290" t="s">
-        <v>176</v>
+      <c r="A106" s="335"/>
+      <c r="B106" s="336"/>
+      <c r="C106" s="255" t="s">
+        <v>175</v>
       </c>
       <c r="D106" s="122" t="s">
         <v>89</v>
@@ -23248,9 +23425,9 @@
       <c r="X106" s="125"/>
     </row>
     <row r="107" spans="1:24" s="126" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A107" s="294"/>
-      <c r="B107" s="295"/>
-      <c r="C107" s="291"/>
+      <c r="A107" s="335"/>
+      <c r="B107" s="336"/>
+      <c r="C107" s="257"/>
       <c r="D107" s="122" t="s">
         <v>49</v>
       </c>
@@ -23276,8 +23453,8 @@
       <c r="X107" s="125"/>
     </row>
     <row r="108" spans="1:24" ht="3.75" customHeight="1" thickTop="1">
-      <c r="A108" s="294"/>
-      <c r="B108" s="296"/>
+      <c r="A108" s="335"/>
+      <c r="B108" s="337"/>
       <c r="C108" s="34"/>
       <c r="D108" s="29"/>
       <c r="E108" s="30"/>
@@ -23302,8 +23479,8 @@
       <c r="X108" s="10"/>
     </row>
     <row r="109" spans="1:24">
-      <c r="A109" s="294"/>
-      <c r="B109" s="296"/>
+      <c r="A109" s="335"/>
+      <c r="B109" s="337"/>
       <c r="C109" s="31" t="s">
         <v>90</v>
       </c>
@@ -23366,8 +23543,8 @@
       <c r="X109" s="10"/>
     </row>
     <row r="110" spans="1:24" ht="3.75" customHeight="1">
-      <c r="A110" s="294"/>
-      <c r="B110" s="296"/>
+      <c r="A110" s="335"/>
+      <c r="B110" s="337"/>
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
       <c r="E110" s="23"/>
@@ -23392,8 +23569,8 @@
       <c r="X110" s="10"/>
     </row>
     <row r="111" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A111" s="297"/>
-      <c r="B111" s="298"/>
+      <c r="A111" s="338"/>
+      <c r="B111" s="339"/>
       <c r="C111" s="31" t="s">
         <v>94</v>
       </c>
@@ -23482,11 +23659,11 @@
       <c r="X112" s="10"/>
     </row>
     <row r="113" spans="1:24" s="126" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A113" s="292" t="s">
-        <v>194</v>
-      </c>
-      <c r="B113" s="299"/>
-      <c r="C113" s="271" t="s">
+      <c r="A113" s="333" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" s="340"/>
+      <c r="C113" s="314" t="s">
         <v>69</v>
       </c>
       <c r="D113" s="122" t="s">
@@ -23514,9 +23691,9 @@
       <c r="X113" s="125"/>
     </row>
     <row r="114" spans="1:24" s="126" customFormat="1">
-      <c r="A114" s="294"/>
-      <c r="B114" s="296"/>
-      <c r="C114" s="272"/>
+      <c r="A114" s="335"/>
+      <c r="B114" s="337"/>
+      <c r="C114" s="315"/>
       <c r="D114" s="122" t="s">
         <v>87</v>
       </c>
@@ -23542,9 +23719,9 @@
       <c r="X114" s="125"/>
     </row>
     <row r="115" spans="1:24" s="126" customFormat="1">
-      <c r="A115" s="294"/>
-      <c r="B115" s="296"/>
-      <c r="C115" s="272"/>
+      <c r="A115" s="335"/>
+      <c r="B115" s="337"/>
+      <c r="C115" s="315"/>
       <c r="D115" s="122" t="s">
         <v>88</v>
       </c>
@@ -23570,11 +23747,11 @@
       <c r="X115" s="125"/>
     </row>
     <row r="116" spans="1:24" s="126" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A116" s="294"/>
-      <c r="B116" s="296"/>
-      <c r="C116" s="273"/>
+      <c r="A116" s="335"/>
+      <c r="B116" s="337"/>
+      <c r="C116" s="316"/>
       <c r="D116" s="122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E116" s="127"/>
       <c r="F116" s="127"/>
@@ -23598,8 +23775,8 @@
       <c r="X116" s="125"/>
     </row>
     <row r="117" spans="1:24" s="126" customFormat="1" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A117" s="294"/>
-      <c r="B117" s="296"/>
+      <c r="A117" s="335"/>
+      <c r="B117" s="337"/>
       <c r="C117" s="132"/>
       <c r="D117" s="129"/>
       <c r="E117" s="131"/>
@@ -23624,9 +23801,9 @@
       <c r="X117" s="125"/>
     </row>
     <row r="118" spans="1:24" s="126" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A118" s="294"/>
-      <c r="B118" s="296"/>
-      <c r="C118" s="271" t="s">
+      <c r="A118" s="335"/>
+      <c r="B118" s="337"/>
+      <c r="C118" s="314" t="s">
         <v>31</v>
       </c>
       <c r="D118" s="122" t="s">
@@ -23654,9 +23831,9 @@
       <c r="X118" s="125"/>
     </row>
     <row r="119" spans="1:24" s="126" customFormat="1">
-      <c r="A119" s="294"/>
-      <c r="B119" s="296"/>
-      <c r="C119" s="272"/>
+      <c r="A119" s="335"/>
+      <c r="B119" s="337"/>
+      <c r="C119" s="315"/>
       <c r="D119" s="122" t="s">
         <v>71</v>
       </c>
@@ -23682,9 +23859,9 @@
       <c r="X119" s="125"/>
     </row>
     <row r="120" spans="1:24" s="126" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A120" s="294"/>
-      <c r="B120" s="296"/>
-      <c r="C120" s="273"/>
+      <c r="A120" s="335"/>
+      <c r="B120" s="337"/>
+      <c r="C120" s="316"/>
       <c r="D120" s="122" t="s">
         <v>72</v>
       </c>
@@ -23710,8 +23887,8 @@
       <c r="X120" s="125"/>
     </row>
     <row r="121" spans="1:24" s="126" customFormat="1" ht="3.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A121" s="294"/>
-      <c r="B121" s="296"/>
+      <c r="A121" s="335"/>
+      <c r="B121" s="337"/>
       <c r="C121" s="132"/>
       <c r="D121" s="129"/>
       <c r="E121" s="131"/>
@@ -23736,13 +23913,13 @@
       <c r="X121" s="125"/>
     </row>
     <row r="122" spans="1:24" s="126" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A122" s="294"/>
-      <c r="B122" s="296"/>
-      <c r="C122" s="276" t="s">
+      <c r="A122" s="335"/>
+      <c r="B122" s="337"/>
+      <c r="C122" s="319" t="s">
         <v>76</v>
       </c>
       <c r="D122" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E122" s="127"/>
       <c r="F122" s="127"/>
@@ -23766,11 +23943,11 @@
       <c r="X122" s="125"/>
     </row>
     <row r="123" spans="1:24" s="126" customFormat="1">
-      <c r="A123" s="294"/>
-      <c r="B123" s="296"/>
-      <c r="C123" s="277"/>
+      <c r="A123" s="335"/>
+      <c r="B123" s="337"/>
+      <c r="C123" s="320"/>
       <c r="D123" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E123" s="127"/>
       <c r="F123" s="127"/>
@@ -23794,11 +23971,11 @@
       <c r="X123" s="125"/>
     </row>
     <row r="124" spans="1:24" s="126" customFormat="1">
-      <c r="A124" s="294"/>
-      <c r="B124" s="296"/>
-      <c r="C124" s="277"/>
+      <c r="A124" s="335"/>
+      <c r="B124" s="337"/>
+      <c r="C124" s="320"/>
       <c r="D124" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E124" s="127"/>
       <c r="F124" s="127"/>
@@ -23822,11 +23999,11 @@
       <c r="X124" s="125"/>
     </row>
     <row r="125" spans="1:24" s="126" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A125" s="294"/>
-      <c r="B125" s="296"/>
-      <c r="C125" s="278"/>
+      <c r="A125" s="335"/>
+      <c r="B125" s="337"/>
+      <c r="C125" s="321"/>
       <c r="D125" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E125" s="127"/>
       <c r="F125" s="127"/>
@@ -23850,8 +24027,8 @@
       <c r="X125" s="125"/>
     </row>
     <row r="126" spans="1:24" ht="3.75" customHeight="1" thickTop="1">
-      <c r="A126" s="294"/>
-      <c r="B126" s="296"/>
+      <c r="A126" s="335"/>
+      <c r="B126" s="337"/>
       <c r="C126" s="35"/>
       <c r="D126" s="29"/>
       <c r="E126" s="23"/>
@@ -23876,8 +24053,8 @@
       <c r="X126" s="10"/>
     </row>
     <row r="127" spans="1:24" s="184" customFormat="1">
-      <c r="A127" s="294"/>
-      <c r="B127" s="296"/>
+      <c r="A127" s="335"/>
+      <c r="B127" s="337"/>
       <c r="C127" s="31" t="s">
         <v>90</v>
       </c>
@@ -23940,8 +24117,8 @@
       <c r="X127" s="183"/>
     </row>
     <row r="128" spans="1:24" s="184" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A128" s="294"/>
-      <c r="B128" s="296"/>
+      <c r="A128" s="335"/>
+      <c r="B128" s="337"/>
       <c r="C128" s="29"/>
       <c r="D128" s="29"/>
       <c r="E128" s="177"/>
@@ -23966,8 +24143,8 @@
       <c r="X128" s="183"/>
     </row>
     <row r="129" spans="1:24" s="184" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A129" s="297"/>
-      <c r="B129" s="298"/>
+      <c r="A129" s="338"/>
+      <c r="B129" s="339"/>
       <c r="C129" s="31" t="s">
         <v>94</v>
       </c>
@@ -24092,11 +24269,11 @@
       <c r="X130" s="10"/>
     </row>
     <row r="131" spans="1:24" s="184" customFormat="1">
-      <c r="A131" s="279" t="s">
-        <v>195</v>
-      </c>
-      <c r="B131" s="280"/>
-      <c r="C131" s="281"/>
+      <c r="A131" s="322" t="s">
+        <v>194</v>
+      </c>
+      <c r="B131" s="323"/>
+      <c r="C131" s="324"/>
       <c r="D131" s="44" t="s">
         <v>0</v>
       </c>
@@ -24158,9 +24335,9 @@
       <c r="X131" s="183"/>
     </row>
     <row r="132" spans="1:24" s="184" customFormat="1">
-      <c r="A132" s="282"/>
-      <c r="B132" s="283"/>
-      <c r="C132" s="284"/>
+      <c r="A132" s="325"/>
+      <c r="B132" s="326"/>
+      <c r="C132" s="327"/>
       <c r="D132" s="44" t="s">
         <v>24</v>
       </c>
@@ -24222,9 +24399,9 @@
       <c r="X132" s="183"/>
     </row>
     <row r="133" spans="1:24" s="184" customFormat="1">
-      <c r="A133" s="282"/>
-      <c r="B133" s="283"/>
-      <c r="C133" s="284"/>
+      <c r="A133" s="325"/>
+      <c r="B133" s="326"/>
+      <c r="C133" s="327"/>
       <c r="D133" s="43" t="s">
         <v>91</v>
       </c>
@@ -24286,9 +24463,9 @@
       <c r="X133" s="183"/>
     </row>
     <row r="134" spans="1:24" s="184" customFormat="1">
-      <c r="A134" s="282"/>
-      <c r="B134" s="283"/>
-      <c r="C134" s="284"/>
+      <c r="A134" s="325"/>
+      <c r="B134" s="326"/>
+      <c r="C134" s="327"/>
       <c r="D134" s="43" t="s">
         <v>92</v>
       </c>
@@ -24350,9 +24527,9 @@
       <c r="X134" s="183"/>
     </row>
     <row r="135" spans="1:24" s="184" customFormat="1">
-      <c r="A135" s="282"/>
-      <c r="B135" s="283"/>
-      <c r="C135" s="284"/>
+      <c r="A135" s="325"/>
+      <c r="B135" s="326"/>
+      <c r="C135" s="327"/>
       <c r="D135" s="43" t="s">
         <v>93</v>
       </c>
@@ -24414,9 +24591,9 @@
       <c r="X135" s="183"/>
     </row>
     <row r="136" spans="1:24" s="184" customFormat="1">
-      <c r="A136" s="282"/>
-      <c r="B136" s="283"/>
-      <c r="C136" s="284"/>
+      <c r="A136" s="325"/>
+      <c r="B136" s="326"/>
+      <c r="C136" s="327"/>
       <c r="D136" s="43" t="s">
         <v>95</v>
       </c>
@@ -24478,9 +24655,9 @@
       <c r="X136" s="183"/>
     </row>
     <row r="137" spans="1:24" s="184" customFormat="1">
-      <c r="A137" s="285"/>
-      <c r="B137" s="286"/>
-      <c r="C137" s="287"/>
+      <c r="A137" s="328"/>
+      <c r="B137" s="329"/>
+      <c r="C137" s="330"/>
       <c r="D137" s="38" t="s">
         <v>47</v>
       </c>
@@ -24692,11 +24869,11 @@
       <c r="X140" s="46"/>
     </row>
     <row r="141" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A141" s="253" t="s">
-        <v>196</v>
-      </c>
-      <c r="B141" s="254"/>
-      <c r="C141" s="255"/>
+      <c r="A141" s="296" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="297"/>
+      <c r="C141" s="298"/>
       <c r="D141" s="201" t="s">
         <v>25</v>
       </c>
@@ -24705,11 +24882,11 @@
         <v>0</v>
       </c>
       <c r="F141" s="200">
-        <f t="shared" ref="F141:F146" si="21">E141+E21</f>
+        <f t="shared" ref="F141:F146" si="21">E141+E21-F158</f>
         <v>0</v>
       </c>
       <c r="G141" s="200">
-        <f t="shared" ref="G141:P141" si="22">F141+F21</f>
+        <f t="shared" ref="G141:P146" si="22">F141+F21-G158</f>
         <v>0</v>
       </c>
       <c r="H141" s="200">
@@ -24745,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="200">
-        <f t="shared" si="22"/>
+        <f>O141+O21-P158</f>
         <v>0</v>
       </c>
       <c r="Q141" s="124"/>
@@ -24758,9 +24935,9 @@
       <c r="X141" s="125"/>
     </row>
     <row r="142" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A142" s="256"/>
-      <c r="B142" s="257"/>
-      <c r="C142" s="258"/>
+      <c r="A142" s="299"/>
+      <c r="B142" s="300"/>
+      <c r="C142" s="301"/>
       <c r="D142" s="201" t="s">
         <v>26</v>
       </c>
@@ -24773,43 +24950,43 @@
         <v>0</v>
       </c>
       <c r="G142" s="200">
-        <f t="shared" ref="G142:P142" si="24">F142+F22</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P142" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q142" s="124"/>
@@ -24822,9 +24999,9 @@
       <c r="X142" s="125"/>
     </row>
     <row r="143" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A143" s="256"/>
-      <c r="B143" s="257"/>
-      <c r="C143" s="258"/>
+      <c r="A143" s="299"/>
+      <c r="B143" s="300"/>
+      <c r="C143" s="301"/>
       <c r="D143" s="201" t="s">
         <v>79</v>
       </c>
@@ -24837,43 +25014,43 @@
         <v>0</v>
       </c>
       <c r="G143" s="200">
-        <f t="shared" ref="G143:P143" si="25">F143+F23</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P143" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q143" s="124"/>
@@ -24886,9 +25063,9 @@
       <c r="X143" s="125"/>
     </row>
     <row r="144" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A144" s="256"/>
-      <c r="B144" s="257"/>
-      <c r="C144" s="258"/>
+      <c r="A144" s="299"/>
+      <c r="B144" s="300"/>
+      <c r="C144" s="301"/>
       <c r="D144" s="201" t="s">
         <v>48</v>
       </c>
@@ -24901,43 +25078,43 @@
         <v>0</v>
       </c>
       <c r="G144" s="200">
-        <f t="shared" ref="G144:P144" si="26">F144+F24</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P144" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q144" s="124"/>
@@ -24950,11 +25127,11 @@
       <c r="X144" s="125"/>
     </row>
     <row r="145" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A145" s="256"/>
-      <c r="B145" s="257"/>
-      <c r="C145" s="258"/>
+      <c r="A145" s="299"/>
+      <c r="B145" s="300"/>
+      <c r="C145" s="301"/>
       <c r="D145" s="201" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="E145" s="200">
         <f t="shared" si="23"/>
@@ -24965,43 +25142,43 @@
         <v>0</v>
       </c>
       <c r="G145" s="200">
-        <f t="shared" ref="G145:P145" si="27">F145+F25</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P145" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q145" s="124"/>
@@ -25014,11 +25191,11 @@
       <c r="X145" s="125"/>
     </row>
     <row r="146" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A146" s="256"/>
-      <c r="B146" s="257"/>
-      <c r="C146" s="258"/>
+      <c r="A146" s="299"/>
+      <c r="B146" s="300"/>
+      <c r="C146" s="301"/>
       <c r="D146" s="201" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E146" s="200">
         <f t="shared" si="23"/>
@@ -25029,43 +25206,43 @@
         <v>0</v>
       </c>
       <c r="G146" s="200">
-        <f t="shared" ref="G146:P146" si="28">F146+F26</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P146" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q146" s="124"/>
@@ -25078,9 +25255,9 @@
       <c r="X146" s="125"/>
     </row>
     <row r="147" spans="1:24" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A147" s="256"/>
-      <c r="B147" s="257"/>
-      <c r="C147" s="258"/>
+      <c r="A147" s="299"/>
+      <c r="B147" s="300"/>
+      <c r="C147" s="301"/>
       <c r="D147" s="201" t="s">
         <v>76</v>
       </c>
@@ -25089,47 +25266,47 @@
         <v>0</v>
       </c>
       <c r="F147" s="200">
-        <f>E147+SUM(F27:F30)</f>
+        <f>E147+SUM(F27:F30)-F164</f>
         <v>0</v>
       </c>
       <c r="G147" s="200">
-        <f>F147+SUM(G27:G30)</f>
+        <f t="shared" ref="G147:P147" si="24">F147+SUM(G27:G30)-G164</f>
         <v>0</v>
       </c>
       <c r="H147" s="200">
-        <f t="shared" ref="H147:O147" si="29">G147+SUM(H27:H30)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I147" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J147" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K147" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L147" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M147" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N147" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O147" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P147" s="200">
-        <f>O147+SUM(P27:P30)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q147" s="124"/>
@@ -25142,9 +25319,9 @@
       <c r="X147" s="125"/>
     </row>
     <row r="148" spans="1:24" ht="3" customHeight="1">
-      <c r="A148" s="256"/>
-      <c r="B148" s="257"/>
-      <c r="C148" s="258"/>
+      <c r="A148" s="299"/>
+      <c r="B148" s="300"/>
+      <c r="C148" s="301"/>
       <c r="D148" s="17"/>
       <c r="E148" s="193"/>
       <c r="F148" s="193"/>
@@ -25168,9 +25345,9 @@
       <c r="X148" s="10"/>
     </row>
     <row r="149" spans="1:24" ht="15" customHeight="1">
-      <c r="A149" s="256"/>
-      <c r="B149" s="257"/>
-      <c r="C149" s="258"/>
+      <c r="A149" s="299"/>
+      <c r="B149" s="300"/>
+      <c r="C149" s="301"/>
       <c r="D149" s="19" t="s">
         <v>50</v>
       </c>
@@ -25179,47 +25356,47 @@
         <v>0</v>
       </c>
       <c r="F149" s="176">
-        <f>E155+F32</f>
+        <f>E155+F32-(SUM(F158:F164))</f>
         <v>0</v>
       </c>
       <c r="G149" s="176">
-        <f t="shared" ref="G149:P149" si="30">F155+G32</f>
+        <f t="shared" ref="G149:P149" si="25">F155+G32-(SUM(G158:G164))</f>
         <v>0</v>
       </c>
       <c r="H149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P149" s="176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q149" s="16"/>
@@ -25232,9 +25409,9 @@
       <c r="X149" s="10"/>
     </row>
     <row r="150" spans="1:24" ht="3.75" customHeight="1">
-      <c r="A150" s="256"/>
-      <c r="B150" s="257"/>
-      <c r="C150" s="258"/>
+      <c r="A150" s="299"/>
+      <c r="B150" s="300"/>
+      <c r="C150" s="301"/>
       <c r="D150" s="29"/>
       <c r="E150" s="177"/>
       <c r="F150" s="177"/>
@@ -25258,58 +25435,58 @@
       <c r="X150" s="10"/>
     </row>
     <row r="151" spans="1:24" ht="15" customHeight="1">
-      <c r="A151" s="256"/>
-      <c r="B151" s="257"/>
-      <c r="C151" s="258"/>
+      <c r="A151" s="299"/>
+      <c r="B151" s="300"/>
+      <c r="C151" s="301"/>
       <c r="D151" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E151" s="178" t="e">
         <f>E132/E149</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F151" s="194" t="e">
-        <f t="shared" ref="F151:P151" si="31">F132/F149</f>
+        <f t="shared" ref="F151:P151" si="26">F132/F149</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P151" s="194" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q151" s="16"/>
@@ -25322,9 +25499,9 @@
       <c r="X151" s="10"/>
     </row>
     <row r="152" spans="1:24" s="47" customFormat="1" ht="6" customHeight="1">
-      <c r="A152" s="256"/>
-      <c r="B152" s="257"/>
-      <c r="C152" s="258"/>
+      <c r="A152" s="299"/>
+      <c r="B152" s="300"/>
+      <c r="C152" s="301"/>
       <c r="D152" s="28"/>
       <c r="E152" s="195"/>
       <c r="F152" s="195"/>
@@ -25348,48 +25525,24 @@
       <c r="X152" s="46"/>
     </row>
     <row r="153" spans="1:24">
-      <c r="A153" s="256"/>
-      <c r="B153" s="257"/>
-      <c r="C153" s="258"/>
+      <c r="A153" s="299"/>
+      <c r="B153" s="300"/>
+      <c r="C153" s="301"/>
       <c r="D153" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="F153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="G153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="H153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="I153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="J153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="K153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="L153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="M153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="N153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="O153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="P153" s="199">
-        <v>6.7000000000000002E-3</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E153" s="199"/>
+      <c r="F153" s="199"/>
+      <c r="G153" s="199"/>
+      <c r="H153" s="199"/>
+      <c r="I153" s="199"/>
+      <c r="J153" s="199"/>
+      <c r="K153" s="199"/>
+      <c r="L153" s="199"/>
+      <c r="M153" s="199"/>
+      <c r="N153" s="199"/>
+      <c r="O153" s="199"/>
+      <c r="P153" s="199"/>
       <c r="Q153" s="10"/>
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
@@ -25400,9 +25553,9 @@
       <c r="X153" s="10"/>
     </row>
     <row r="154" spans="1:24" ht="4.5" customHeight="1">
-      <c r="A154" s="256"/>
-      <c r="B154" s="257"/>
-      <c r="C154" s="258"/>
+      <c r="A154" s="299"/>
+      <c r="B154" s="300"/>
+      <c r="C154" s="301"/>
       <c r="D154" s="10"/>
       <c r="E154" s="196"/>
       <c r="F154" s="196"/>
@@ -25426,18 +25579,18 @@
       <c r="X154" s="10"/>
     </row>
     <row r="155" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A155" s="259"/>
-      <c r="B155" s="260"/>
-      <c r="C155" s="261"/>
+      <c r="A155" s="302"/>
+      <c r="B155" s="303"/>
+      <c r="C155" s="304"/>
       <c r="D155" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E155" s="176">
         <f>E149+(E149*E153)</f>
         <v>0</v>
       </c>
       <c r="F155" s="176">
-        <f t="shared" ref="F155:P155" si="32">F149+(F149*F153)</f>
+        <f t="shared" ref="F155:P155" si="27">F149+(F149*F153)</f>
         <v>0</v>
       </c>
       <c r="G155" s="176">
@@ -25445,39 +25598,39 @@
         <v>0</v>
       </c>
       <c r="H155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P155" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q155" s="16"/>
@@ -25520,80 +25673,157 @@
       <c r="B157" s="45"/>
       <c r="C157" s="45"/>
       <c r="E157" s="71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="15" customHeight="1" thickTop="1">
+      <c r="A158" s="287" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" ht="15" customHeight="1" thickTop="1">
-      <c r="A158" s="244" t="s">
-        <v>198</v>
-      </c>
-      <c r="B158" s="245"/>
-      <c r="C158" s="246"/>
+      <c r="B158" s="288"/>
+      <c r="C158" s="289"/>
       <c r="D158" s="72" t="str">
-        <f t="shared" ref="D158:D164" si="33">D141</f>
+        <f t="shared" ref="D158:D164" si="28">D141</f>
         <v>Ações</v>
       </c>
       <c r="E158" s="134"/>
+      <c r="F158" s="220"/>
+      <c r="G158" s="221"/>
+      <c r="H158" s="221"/>
+      <c r="I158" s="221"/>
+      <c r="J158" s="221"/>
+      <c r="K158" s="221"/>
+      <c r="L158" s="221"/>
+      <c r="M158" s="221"/>
+      <c r="N158" s="221"/>
+      <c r="O158" s="221"/>
+      <c r="P158" s="222"/>
     </row>
     <row r="159" spans="1:24">
-      <c r="A159" s="247"/>
-      <c r="B159" s="248"/>
-      <c r="C159" s="249"/>
+      <c r="A159" s="290"/>
+      <c r="B159" s="291"/>
+      <c r="C159" s="292"/>
       <c r="D159" s="73" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>Tesouro Direto</v>
       </c>
       <c r="E159" s="135"/>
+      <c r="F159" s="223"/>
+      <c r="G159" s="224"/>
+      <c r="H159" s="224"/>
+      <c r="I159" s="224"/>
+      <c r="J159" s="224"/>
+      <c r="K159" s="224"/>
+      <c r="L159" s="224"/>
+      <c r="M159" s="224"/>
+      <c r="N159" s="224"/>
+      <c r="O159" s="224"/>
+      <c r="P159" s="225"/>
     </row>
     <row r="160" spans="1:24">
-      <c r="A160" s="247"/>
-      <c r="B160" s="248"/>
-      <c r="C160" s="249"/>
+      <c r="A160" s="290"/>
+      <c r="B160" s="291"/>
+      <c r="C160" s="292"/>
       <c r="D160" s="73" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>Renda fixa</v>
       </c>
       <c r="E160" s="135"/>
+      <c r="F160" s="223"/>
+      <c r="G160" s="224"/>
+      <c r="H160" s="224"/>
+      <c r="I160" s="224"/>
+      <c r="J160" s="224"/>
+      <c r="K160" s="224"/>
+      <c r="L160" s="224"/>
+      <c r="M160" s="224"/>
+      <c r="N160" s="224"/>
+      <c r="O160" s="224"/>
+      <c r="P160" s="225"/>
     </row>
     <row r="161" spans="1:24">
-      <c r="A161" s="247"/>
-      <c r="B161" s="248"/>
-      <c r="C161" s="249"/>
+      <c r="A161" s="290"/>
+      <c r="B161" s="291"/>
+      <c r="C161" s="292"/>
       <c r="D161" s="73" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>Previdência privada</v>
       </c>
       <c r="E161" s="135"/>
+      <c r="F161" s="223"/>
+      <c r="G161" s="224"/>
+      <c r="H161" s="224"/>
+      <c r="I161" s="224"/>
+      <c r="J161" s="224"/>
+      <c r="K161" s="224"/>
+      <c r="L161" s="224"/>
+      <c r="M161" s="224"/>
+      <c r="N161" s="224"/>
+      <c r="O161" s="224"/>
+      <c r="P161" s="225"/>
     </row>
     <row r="162" spans="1:24">
-      <c r="A162" s="247"/>
-      <c r="B162" s="248"/>
-      <c r="C162" s="249"/>
+      <c r="A162" s="290"/>
+      <c r="B162" s="291"/>
+      <c r="C162" s="292"/>
       <c r="D162" s="73" t="str">
-        <f t="shared" si="33"/>
-        <v>Imoveis</v>
+        <f t="shared" si="28"/>
+        <v>Fundo de Investimento</v>
       </c>
       <c r="E162" s="135"/>
+      <c r="F162" s="223"/>
+      <c r="G162" s="224"/>
+      <c r="H162" s="224"/>
+      <c r="I162" s="224"/>
+      <c r="J162" s="224"/>
+      <c r="K162" s="224"/>
+      <c r="L162" s="224"/>
+      <c r="M162" s="224"/>
+      <c r="N162" s="224"/>
+      <c r="O162" s="224"/>
+      <c r="P162" s="225"/>
     </row>
     <row r="163" spans="1:24">
-      <c r="A163" s="247"/>
-      <c r="B163" s="248"/>
-      <c r="C163" s="249"/>
+      <c r="A163" s="290"/>
+      <c r="B163" s="291"/>
+      <c r="C163" s="292"/>
       <c r="D163" s="73" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>Inv. Exterior ( Em R$)</v>
       </c>
       <c r="E163" s="135"/>
+      <c r="F163" s="223"/>
+      <c r="G163" s="224"/>
+      <c r="H163" s="224"/>
+      <c r="I163" s="224"/>
+      <c r="J163" s="224"/>
+      <c r="K163" s="224"/>
+      <c r="L163" s="224"/>
+      <c r="M163" s="224"/>
+      <c r="N163" s="224"/>
+      <c r="O163" s="224"/>
+      <c r="P163" s="225"/>
     </row>
     <row r="164" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A164" s="250"/>
-      <c r="B164" s="251"/>
-      <c r="C164" s="252"/>
+      <c r="A164" s="293"/>
+      <c r="B164" s="294"/>
+      <c r="C164" s="295"/>
       <c r="D164" s="74" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>Outros</v>
       </c>
       <c r="E164" s="136"/>
+      <c r="F164" s="226"/>
+      <c r="G164" s="227"/>
+      <c r="H164" s="227"/>
+      <c r="I164" s="227"/>
+      <c r="J164" s="227"/>
+      <c r="K164" s="227"/>
+      <c r="L164" s="227"/>
+      <c r="M164" s="227"/>
+      <c r="N164" s="227"/>
+      <c r="O164" s="227"/>
+      <c r="P164" s="228"/>
     </row>
     <row r="165" spans="1:24" ht="8.25" customHeight="1" thickTop="1"/>
     <row r="166" spans="1:24" hidden="1"/>
@@ -28560,8 +28790,21 @@
       <c r="X280" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9eCBRmVRdLzyjRorgpVTeLiIUZMwpYZ5fYYqSbZ64DVbyq5BgKgE8yhRx5wAhwqwvb/fXIlfPcsXeTyjGruuvw==" saltValue="g5tswgApgTLJrs2mXybrgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VxsFwk7XhZk8Cer9rVJgbHjY+9TobDVjaYEbxgBwoZNtLtm9UKw9jTFerxaLmxlVgXwuNHHVdhnvSqacgLVVvw==" saltValue="u9sttSuiuGHCzghlx5lRFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
+    <mergeCell ref="A158:C164"/>
+    <mergeCell ref="A141:C155"/>
+    <mergeCell ref="A21:C34"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="A131:C137"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A99:B111"/>
+    <mergeCell ref="A113:B129"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C89:C93"/>
@@ -28578,19 +28821,6 @@
     <mergeCell ref="C78:C81"/>
     <mergeCell ref="A38:B68"/>
     <mergeCell ref="A70:B97"/>
-    <mergeCell ref="A158:C164"/>
-    <mergeCell ref="A141:C155"/>
-    <mergeCell ref="A21:C34"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="A131:C137"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A99:B111"/>
-    <mergeCell ref="A113:B129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E137:P138">
@@ -28647,8 +28877,8 @@
       <c r="D4" s="86"/>
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
       <c r="I4" s="63"/>
       <c r="J4" s="63"/>
       <c r="K4" s="87"/>
@@ -28713,7 +28943,7 @@
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1">
       <c r="B14" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="93"/>
       <c r="E14" s="89"/>
@@ -28721,119 +28951,119 @@
     </row>
     <row r="15" spans="2:14" ht="15.75">
       <c r="B15" s="88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="118">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="2:14" ht="15.75">
       <c r="B16" s="88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="119">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="D16" s="83"/>
       <c r="E16" s="89"/>
       <c r="F16" s="55"/>
-      <c r="I16" s="336" t="s">
-        <v>212</v>
-      </c>
-      <c r="J16" s="337"/>
-      <c r="K16" s="338"/>
-      <c r="L16" s="339">
-        <v>360</v>
-      </c>
-      <c r="M16" s="340"/>
+      <c r="I16" s="360" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="361"/>
+      <c r="K16" s="362"/>
+      <c r="L16" s="363">
+        <v>320</v>
+      </c>
+      <c r="M16" s="364"/>
     </row>
     <row r="17" spans="2:14" ht="15.75">
       <c r="B17" s="88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="120">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="89"/>
       <c r="F17" s="55"/>
       <c r="I17" s="204" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J17" s="205"/>
       <c r="K17" s="206"/>
-      <c r="L17" s="343">
-        <v>300</v>
-      </c>
-      <c r="M17" s="344"/>
+      <c r="L17" s="367">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="368"/>
     </row>
     <row r="18" spans="2:14" ht="15.75" customHeight="1">
       <c r="B18" s="88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="197">
         <f>C17/12</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="89"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="342"/>
-      <c r="H18" s="342"/>
+      <c r="G18" s="366"/>
+      <c r="H18" s="366"/>
       <c r="I18" s="204" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J18" s="205"/>
       <c r="K18" s="206"/>
-      <c r="L18" s="347">
+      <c r="L18" s="371">
         <v>0.08</v>
       </c>
-      <c r="M18" s="348"/>
+      <c r="M18" s="372"/>
     </row>
     <row r="19" spans="2:14" ht="15.75">
       <c r="B19" s="88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="198">
         <f>POWER(1+C16,1/12)-1</f>
-        <v>6.4340301100034303E-3</v>
+        <v>1.02368443581764E-2</v>
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="89"/>
       <c r="G19" s="56"/>
       <c r="H19" s="55"/>
       <c r="I19" s="204" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J19" s="205"/>
       <c r="K19" s="206"/>
-      <c r="L19" s="345">
+      <c r="L19" s="369">
         <f>POWER(1+L18,1/12)-1</f>
         <v>6.4340301100034303E-3</v>
       </c>
-      <c r="M19" s="346"/>
+      <c r="M19" s="370"/>
     </row>
     <row r="20" spans="2:14" ht="15.75">
       <c r="B20" s="88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="121">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="D20" s="84"/>
       <c r="G20" s="56"/>
       <c r="H20" s="55"/>
       <c r="I20" s="204" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J20" s="205"/>
       <c r="K20" s="206"/>
-      <c r="L20" s="334">
-        <v>1000</v>
-      </c>
-      <c r="M20" s="335"/>
+      <c r="L20" s="358">
+        <v>0</v>
+      </c>
+      <c r="M20" s="359"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" thickBot="1">
       <c r="B21" s="94"/>
@@ -28869,42 +29099,42 @@
       <c r="H23" s="55"/>
     </row>
     <row r="24" spans="2:14" ht="25.5" customHeight="1">
-      <c r="B24" s="350" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="363">
+      <c r="B24" s="351" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="354">
         <f>(PMT(C19,C17,(-C20),C15,0))*-1</f>
-        <v>543.18650822446648</v>
+        <v>3197.6808782852868</v>
       </c>
       <c r="D24" s="90"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
       <c r="G24" s="56"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="349" t="s">
-        <v>215</v>
-      </c>
-      <c r="J24" s="349"/>
-      <c r="K24" s="350"/>
-      <c r="L24" s="332">
+      <c r="I24" s="373" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="373"/>
+      <c r="K24" s="351"/>
+      <c r="L24" s="356">
         <f>FV(L19,L16,-L17,-L20,0)</f>
-        <v>432627.83302881737</v>
-      </c>
-      <c r="M24" s="333"/>
+        <v>1054664.7063018004</v>
+      </c>
+      <c r="M24" s="357"/>
     </row>
     <row r="25" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B25" s="350"/>
-      <c r="C25" s="364"/>
+      <c r="B25" s="351"/>
+      <c r="C25" s="355"/>
       <c r="D25" s="90"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
       <c r="G25" s="56"/>
       <c r="H25" s="55"/>
-      <c r="I25" s="349"/>
-      <c r="J25" s="349"/>
-      <c r="K25" s="350"/>
-      <c r="L25" s="332"/>
-      <c r="M25" s="333"/>
+      <c r="I25" s="373"/>
+      <c r="J25" s="373"/>
+      <c r="K25" s="351"/>
+      <c r="L25" s="356"/>
+      <c r="M25" s="357"/>
     </row>
     <row r="26" spans="2:14">
       <c r="N26" s="42"/>
@@ -28987,175 +29217,175 @@
       <c r="H33" s="55"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="361" t="s">
-        <v>209</v>
+      <c r="B34" s="352" t="s">
+        <v>208</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E34" s="111" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="362" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="362"/>
+        <v>138</v>
+      </c>
+      <c r="F34" s="353" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="353"/>
       <c r="H34" s="111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="361"/>
+      <c r="B35" s="352"/>
       <c r="C35" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="97">
         <v>0.05</v>
       </c>
       <c r="E35" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="361"/>
+      <c r="B36" s="352"/>
       <c r="C36" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="97">
         <v>0.05</v>
       </c>
       <c r="E36" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="361"/>
+      <c r="B37" s="352"/>
       <c r="C37" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="97">
         <v>0.05</v>
       </c>
       <c r="E37" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G37" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H37" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="361"/>
+      <c r="B38" s="352"/>
       <c r="C38" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="97">
         <v>0.25</v>
       </c>
       <c r="E38" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="95" t="s">
-        <v>129</v>
-      </c>
       <c r="H38" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="361"/>
+      <c r="B39" s="352"/>
       <c r="C39" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="97">
         <v>0.05</v>
       </c>
       <c r="E39" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F39" s="96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="361"/>
+      <c r="B40" s="352"/>
       <c r="C40" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="97">
         <v>0.1</v>
       </c>
       <c r="E40" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H40" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="361"/>
+      <c r="B41" s="352"/>
       <c r="C41" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="97">
         <v>0.1</v>
       </c>
       <c r="E41" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G41" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H41" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="361"/>
+      <c r="B42" s="352"/>
       <c r="C42" s="95" t="s">
         <v>26</v>
       </c>
@@ -29163,71 +29393,71 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H42" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="361"/>
+      <c r="B43" s="352"/>
       <c r="C43" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="97">
         <v>0.1</v>
       </c>
       <c r="E43" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F43" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="95" t="s">
-        <v>136</v>
-      </c>
       <c r="H43" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="361"/>
+      <c r="B44" s="352"/>
       <c r="C44" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="97">
         <v>0.1</v>
       </c>
       <c r="E44" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F44" s="96"/>
       <c r="G44" s="95"/>
       <c r="H44" s="95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="361"/>
+      <c r="B45" s="352"/>
       <c r="C45" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="97">
         <v>0.05</v>
       </c>
       <c r="E45" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" s="96"/>
       <c r="G45" s="95"/>
       <c r="H45" s="95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -29261,175 +29491,175 @@
     <row r="48" spans="2:13"/>
     <row r="49" spans="2:8" ht="12.75" customHeight="1"/>
     <row r="50" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B50" s="356" t="s">
-        <v>210</v>
+      <c r="B50" s="346" t="s">
+        <v>209</v>
       </c>
       <c r="C50" s="109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="359" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="360"/>
+        <v>138</v>
+      </c>
+      <c r="F50" s="349" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="350"/>
       <c r="H50" s="109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B51" s="357"/>
+      <c r="B51" s="347"/>
       <c r="C51" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="97">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E51" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G51" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H51" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B52" s="357"/>
+      <c r="B52" s="347"/>
       <c r="C52" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="97">
         <v>0.05</v>
       </c>
       <c r="E52" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G52" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H52" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B53" s="357"/>
+      <c r="B53" s="347"/>
       <c r="C53" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="97">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E53" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G53" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H53" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B54" s="357"/>
+      <c r="B54" s="347"/>
       <c r="C54" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="97">
         <v>0.25</v>
       </c>
       <c r="E54" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G54" s="95" t="s">
-        <v>129</v>
-      </c>
       <c r="H54" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B55" s="357"/>
+      <c r="B55" s="347"/>
       <c r="C55" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" s="100">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E55" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G55" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H55" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B56" s="357"/>
+      <c r="B56" s="347"/>
       <c r="C56" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D56" s="97">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E56" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G56" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H56" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B57" s="357"/>
+      <c r="B57" s="347"/>
       <c r="C57" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="97">
         <v>0.05</v>
       </c>
       <c r="E57" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G57" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H57" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B58" s="357"/>
+      <c r="B58" s="347"/>
       <c r="C58" s="95" t="s">
         <v>26</v>
       </c>
@@ -29437,117 +29667,117 @@
         <v>0.05</v>
       </c>
       <c r="E58" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" s="99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H58" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B59" s="357"/>
+      <c r="B59" s="347"/>
       <c r="C59" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59" s="97">
         <v>0.05</v>
       </c>
       <c r="E59" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G59" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H59" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B60" s="357"/>
+      <c r="B60" s="347"/>
       <c r="C60" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" s="97">
         <v>0.15</v>
       </c>
       <c r="E60" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" s="95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B61" s="347"/>
+      <c r="C61" s="95" t="s">
         <v>140</v>
-      </c>
-      <c r="F60" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="H60" s="95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B61" s="357"/>
-      <c r="C61" s="95" t="s">
-        <v>141</v>
       </c>
       <c r="D61" s="97">
         <v>0.1</v>
       </c>
       <c r="E61" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" s="99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H61" s="95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B62" s="357"/>
+      <c r="B62" s="347"/>
       <c r="C62" s="95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" s="97">
         <v>0.1</v>
       </c>
       <c r="E62" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="G62" s="95" t="s">
-        <v>136</v>
-      </c>
       <c r="H62" s="95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B63" s="358"/>
+      <c r="B63" s="348"/>
       <c r="C63" s="95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D63" s="97">
         <v>0.1</v>
       </c>
       <c r="E63" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="96"/>
       <c r="G63" s="95"/>
       <c r="H63" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="12.75" customHeight="1"/>
@@ -29581,175 +29811,175 @@
     </row>
     <row r="67" spans="2:13" ht="12.75" customHeight="1"/>
     <row r="68" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B68" s="351" t="s">
-        <v>211</v>
+      <c r="B68" s="341" t="s">
+        <v>210</v>
       </c>
       <c r="C68" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" s="108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="354" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" s="355"/>
+        <v>138</v>
+      </c>
+      <c r="F68" s="344" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="345"/>
       <c r="H68" s="107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B69" s="352"/>
+      <c r="B69" s="342"/>
       <c r="C69" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="100">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E69" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F69" s="99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B70" s="352"/>
+      <c r="B70" s="342"/>
       <c r="C70" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D70" s="100">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E70" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H70" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B71" s="352"/>
+      <c r="B71" s="342"/>
       <c r="C71" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" s="100">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E71" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F71" s="99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G71" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H71" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B72" s="352"/>
+      <c r="B72" s="342"/>
       <c r="C72" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72" s="97">
         <v>0.2</v>
       </c>
       <c r="E72" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F72" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G72" s="95" t="s">
-        <v>129</v>
-      </c>
       <c r="H72" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B73" s="352"/>
+      <c r="B73" s="342"/>
       <c r="C73" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="97">
         <v>0.05</v>
       </c>
       <c r="E73" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F73" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G73" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H73" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B74" s="352"/>
+      <c r="B74" s="342"/>
       <c r="C74" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="97">
         <v>0.02</v>
       </c>
       <c r="E74" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F74" s="99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G74" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H74" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B75" s="352"/>
+      <c r="B75" s="342"/>
       <c r="C75" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="97">
         <v>0.02</v>
       </c>
       <c r="E75" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F75" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G75" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H75" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B76" s="352"/>
+      <c r="B76" s="342"/>
       <c r="C76" s="95" t="s">
         <v>26</v>
       </c>
@@ -29757,123 +29987,123 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E76" s="95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H76" s="95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="12.75" customHeight="1">
+      <c r="B77" s="342"/>
+      <c r="C77" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="97">
+        <v>0</v>
+      </c>
+      <c r="E77" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="G76" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" s="95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B77" s="352"/>
-      <c r="C77" s="95" t="s">
+      <c r="G77" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="97">
-        <v>0</v>
-      </c>
-      <c r="E77" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="F77" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="G77" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="H77" s="95" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="78" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B78" s="352"/>
+      <c r="B78" s="342"/>
       <c r="C78" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D78" s="97">
         <v>0.15</v>
       </c>
       <c r="E78" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="23.25" customHeight="1">
+      <c r="B79" s="342"/>
+      <c r="C79" s="95" t="s">
         <v>140</v>
-      </c>
-      <c r="F78" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="G78" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="H78" s="95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B79" s="352"/>
-      <c r="C79" s="95" t="s">
-        <v>141</v>
       </c>
       <c r="D79" s="97">
         <v>0.05</v>
       </c>
       <c r="E79" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F79" s="99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G79" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H79" s="95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B80" s="352"/>
+      <c r="B80" s="342"/>
       <c r="C80" s="95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D80" s="100">
         <v>0.125</v>
       </c>
       <c r="E80" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F80" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="G80" s="95" t="s">
-        <v>136</v>
-      </c>
       <c r="H80" s="95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B81" s="352"/>
+      <c r="B81" s="342"/>
       <c r="C81" s="95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D81" s="97">
         <v>0.05</v>
       </c>
       <c r="E81" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F81" s="96"/>
       <c r="G81" s="95"/>
       <c r="H81" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B82" s="352"/>
+      <c r="B82" s="342"/>
       <c r="C82" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="100">
         <v>0.17499999999999999</v>
@@ -29882,13 +30112,13 @@
       <c r="F82" s="96"/>
       <c r="G82" s="95"/>
       <c r="H82" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B83" s="353"/>
+      <c r="B83" s="343"/>
       <c r="C83" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D83" s="100">
         <v>0.01</v>
@@ -29897,7 +30127,7 @@
       <c r="F83" s="96"/>
       <c r="G83" s="95"/>
       <c r="H83" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="2:13"/>
@@ -29918,14 +30148,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="mV1YL+0+bgOqh2YVdmSWOhuJKkZ5NfD7oYZgO9vN0tJQ6EGddgVTA9NlGx3WXR+ZyERH7vJbL6EA+t8VAf0zoQ==" saltValue="4ik5+TXSMoWx+jZaqvlTfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B50:B63"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B34:B45"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="L24:M25"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="I16:K16"/>
@@ -29936,6 +30158,14 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="I24:K25"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B50:B63"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
